--- a/公司文件/文档资料/201902考勤明细_德贤.xlsx
+++ b/公司文件/文档资料/201902考勤明细_德贤.xlsx
@@ -560,6 +560,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -570,21 +593,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -604,6 +612,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -613,6 +629,46 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,66 +695,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -743,187 +743,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,6 +976,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -987,6 +1026,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,210 +1073,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1604,7 +1604,7 @@
   <dimension ref="A1:AE11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1784,15 +1784,25 @@
       <c r="W3" s="8">
         <v>9</v>
       </c>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
+      <c r="X3" s="8">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>12</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>12</v>
+      </c>
       <c r="AC3" s="8"/>
       <c r="AD3" s="10">
         <f>SUM(B3:AC3)</f>
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="AE3" s="5" t="s">
         <v>3</v>
@@ -1848,15 +1858,25 @@
       <c r="W4" s="8">
         <v>12</v>
       </c>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
+      <c r="X4" s="8">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>12</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>9</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>9</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>9</v>
+      </c>
       <c r="AC4" s="8"/>
       <c r="AD4" s="10">
         <f>SUM(B4:AC4)</f>
-        <v>119.5</v>
+        <v>167.5</v>
       </c>
       <c r="AE4" s="5" t="s">
         <v>4</v>
@@ -1902,15 +1922,25 @@
       <c r="W5" s="8">
         <v>8</v>
       </c>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
+      <c r="X5" s="8">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>8</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>8</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>8</v>
+      </c>
       <c r="AC5" s="8"/>
       <c r="AD5" s="10">
         <f>SUM(B5:AC5)</f>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AE5" s="5" t="s">
         <v>5</v>

--- a/公司文件/文档资料/201902考勤明细_德贤.xlsx
+++ b/公司文件/文档资料/201902考勤明细_德贤.xlsx
@@ -773,6 +773,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -833,6 +839,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -912,18 +924,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,10 +1079,10 @@
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1091,133 +1091,133 @@
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1604,7 +1604,7 @@
   <dimension ref="A1:AE11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1799,10 +1799,12 @@
       <c r="AB3" s="8">
         <v>12</v>
       </c>
-      <c r="AC3" s="8"/>
+      <c r="AC3" s="8">
+        <v>12</v>
+      </c>
       <c r="AD3" s="10">
         <f>SUM(B3:AC3)</f>
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AE3" s="5" t="s">
         <v>3</v>
@@ -1873,10 +1875,12 @@
       <c r="AB4" s="8">
         <v>9</v>
       </c>
-      <c r="AC4" s="8"/>
+      <c r="AC4" s="8">
+        <v>9</v>
+      </c>
       <c r="AD4" s="10">
         <f>SUM(B4:AC4)</f>
-        <v>167.5</v>
+        <v>176.5</v>
       </c>
       <c r="AE4" s="5" t="s">
         <v>4</v>
@@ -1937,10 +1941,12 @@
       <c r="AB5" s="8">
         <v>8</v>
       </c>
-      <c r="AC5" s="8"/>
+      <c r="AC5" s="8">
+        <v>8</v>
+      </c>
       <c r="AD5" s="10">
         <f>SUM(B5:AC5)</f>
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="AE5" s="5" t="s">
         <v>5</v>

--- a/公司文件/文档资料/201902考勤明细_德贤.xlsx
+++ b/公司文件/文档资料/201902考勤明细_德贤.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>日期</t>
   </si>
@@ -68,7 +68,16 @@
     <t>20190216焦德朋阿叔入职</t>
   </si>
   <si>
+    <t>20190216王斌休息一天</t>
+  </si>
+  <si>
     <t>20190211曾小蒙请假0.5小时</t>
+  </si>
+  <si>
+    <t>20190214王斌休息一天</t>
+  </si>
+  <si>
+    <t>20190226曾小蒙休息一天</t>
   </si>
   <si>
     <r>
@@ -520,10 +529,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -562,37 +571,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -650,6 +636,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,27 +705,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -743,6 +752,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -773,60 +890,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -834,60 +897,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,16 +985,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1001,21 +1010,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1026,6 +1020,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1050,21 +1074,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1076,148 +1085,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1601,10 +1610,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE11"/>
+  <dimension ref="A1:AE15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12 X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1858,7 +1867,7 @@
         <v>9</v>
       </c>
       <c r="W4" s="8">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="X4" s="8">
         <v>9</v>
@@ -1869,8 +1878,8 @@
       <c r="Z4" s="8">
         <v>9</v>
       </c>
-      <c r="AA4" s="8">
-        <v>9</v>
+      <c r="AA4" s="6">
+        <v>0</v>
       </c>
       <c r="AB4" s="8">
         <v>9</v>
@@ -1880,7 +1889,7 @@
       </c>
       <c r="AD4" s="10">
         <f>SUM(B4:AC4)</f>
-        <v>176.5</v>
+        <v>168</v>
       </c>
       <c r="AE4" s="5" t="s">
         <v>4</v>
@@ -2061,6 +2070,26 @@
     <row r="11" spans="20:20">
       <c r="T11" s="9" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="20:20">
+      <c r="T12" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="20:20">
+      <c r="T13" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="20:20">
+      <c r="T14" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="20:20">
+      <c r="T15" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2186,7 +2215,7 @@
     </row>
     <row r="2" ht="35.25" spans="1:32">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2432,7 +2461,7 @@
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -2532,7 +2561,7 @@
         <v>63</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -2642,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="20:21">
@@ -2650,7 +2679,7 @@
         <v>2</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="20:21">
@@ -2658,7 +2687,7 @@
         <v>3</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="20:21">
@@ -2666,7 +2695,7 @@
         <v>4</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="20:21">
@@ -2674,7 +2703,7 @@
         <v>5</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="20:21">
@@ -2682,7 +2711,7 @@
         <v>6</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="20:21">
@@ -2690,7 +2719,7 @@
         <v>7</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="20:21">
@@ -2698,7 +2727,7 @@
         <v>8</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="20:21">
@@ -2706,7 +2735,7 @@
         <v>9</v>
       </c>
       <c r="U17" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="20:21">
@@ -2714,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="20:21">
@@ -2722,7 +2751,7 @@
         <v>11</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
